--- a/data/trans_camb/P2C_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 6,3</t>
+          <t>-0,74; 6,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 8,69</t>
+          <t>0,66; 8,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 6,03</t>
+          <t>-3,41; 6,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 17,37</t>
+          <t>7,1; 17,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,83; 18,16</t>
+          <t>7,72; 18,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 3,65</t>
+          <t>-7,14; 3,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 10,3</t>
+          <t>3,99; 10,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 11,66</t>
+          <t>5,41; 11,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 3,3</t>
+          <t>-3,74; 3,31</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 126,19</t>
+          <t>-10,81; 122,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 175,05</t>
+          <t>4,44; 158,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,0; 102,22</t>
+          <t>-48,72; 115,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,52; 171,87</t>
+          <t>47,48; 163,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,57; 184,05</t>
+          <t>52,93; 177,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,21; 35,58</t>
+          <t>-52,33; 36,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,41; 131,34</t>
+          <t>36,7; 131,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,74; 149,55</t>
+          <t>51,63; 151,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-37,09; 40,68</t>
+          <t>-36,29; 40,6</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 12,02</t>
+          <t>2,6; 12,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 12,95</t>
+          <t>2,64; 12,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,24; -5,4</t>
+          <t>-16,56; -6,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,62; 20,79</t>
+          <t>8,89; 20,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 11,28</t>
+          <t>-0,32; 11,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,83; -21,51</t>
+          <t>-33,34; -21,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 15,04</t>
+          <t>7,18; 15,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 11,27</t>
+          <t>3,29; 11,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-22,1; -14,21</t>
+          <t>-22,12; -14,18</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,86; 54,26</t>
+          <t>9,22; 55,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 58,35</t>
+          <t>9,7; 56,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,58; -26,13</t>
+          <t>-64,32; -27,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,39; 45,07</t>
+          <t>16,64; 45,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 24,29</t>
+          <t>-0,56; 24,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,17; -46,07</t>
+          <t>-64,34; -44,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,71; 45,4</t>
+          <t>19,22; 45,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,6; 33,44</t>
+          <t>8,92; 32,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-59,2; -41,83</t>
+          <t>-59,69; -41,53</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,01; 22,34</t>
+          <t>11,39; 21,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 10,46</t>
+          <t>-1,11; 9,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-28,28; -16,91</t>
+          <t>-27,56; -17,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,24; 27,68</t>
+          <t>18,27; 27,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 12,11</t>
+          <t>1,45; 11,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,25; -28,62</t>
+          <t>-39,03; -28,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,29; 23,76</t>
+          <t>16,47; 23,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 9,21</t>
+          <t>1,44; 8,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-31,93; -24,32</t>
+          <t>-32,16; -24,44</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,96; 53,1</t>
+          <t>24,27; 52,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 25,76</t>
+          <t>-2,4; 23,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,88; -40,9</t>
+          <t>-60,02; -40,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,12; 50,2</t>
+          <t>30,26; 50,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 21,88</t>
+          <t>2,41; 20,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,73; -51,54</t>
+          <t>-64,68; -50,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,66; 48,5</t>
+          <t>31,2; 48,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,69; 18,39</t>
+          <t>2,62; 18,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,97; -48,51</t>
+          <t>-60,68; -49,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,06; 22,4</t>
+          <t>10,66; 22,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 10,22</t>
+          <t>-0,53; 9,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,81; -3,02</t>
+          <t>-13,24; -2,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,59; 25,3</t>
+          <t>13,67; 25,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 11,32</t>
+          <t>1,39; 11,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,14; -4,4</t>
+          <t>-13,38; -4,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,74; 21,72</t>
+          <t>13,79; 21,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 9,09</t>
+          <t>2,01; 9,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,25; -4,91</t>
+          <t>-11,34; -4,85</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>45,74; 121,72</t>
+          <t>42,36; 117,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 55,61</t>
+          <t>-2,28; 51,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-53,74; -15,39</t>
+          <t>-54,2; -14,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>52,46; 121,47</t>
+          <t>53,44; 124,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,09; 53,73</t>
+          <t>5,46; 57,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,79; -21,88</t>
+          <t>-50,45; -22,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>56,22; 104,94</t>
+          <t>57,19; 105,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,39; 43,93</t>
+          <t>8,06; 44,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-46,16; -23,77</t>
+          <t>-46,06; -23,61</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,29; 10,67</t>
+          <t>2,65; 11,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 6,69</t>
+          <t>-0,25; 6,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,05; 6,56</t>
+          <t>-0,06; 6,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 10,78</t>
+          <t>-0,18; 10,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,92; -0,44</t>
+          <t>-9,74; 0,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -2,58</t>
+          <t>-11,22; -2,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,56; 9,47</t>
+          <t>2,52; 9,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 2,22</t>
+          <t>-3,69; 2,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 1,01</t>
+          <t>-4,26; 1,09</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>40,76; 286,09</t>
+          <t>31,61; 286,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 177,57</t>
+          <t>-5,95; 172,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 178,33</t>
+          <t>-5,15; 173,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 74,31</t>
+          <t>-1,66; 74,38</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-50,27; -1,62</t>
+          <t>-48,83; 1,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-53,0; -16,97</t>
+          <t>-54,19; -15,92</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>19,18; 99,7</t>
+          <t>18,92; 94,33</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 23,3</t>
+          <t>-28,52; 23,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-33,91; 11,2</t>
+          <t>-32,73; 12,4</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,45</t>
+          <t>-2,94; 3,65</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 2,26</t>
+          <t>-3,57; 2,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,89; 10,03</t>
+          <t>3,63; 9,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,66</t>
+          <t>-2,08; 4,75</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 4,47</t>
+          <t>-2,32; 4,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,27; 38,97</t>
+          <t>10,12; 41,78</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 3,07</t>
+          <t>-1,47; 3,37</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,41</t>
+          <t>-2,48; 2,44</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,97; 29,7</t>
+          <t>8,94; 31,06</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-31,26; 62,3</t>
+          <t>-34,5; 62,79</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-43,17; 40,34</t>
+          <t>-40,82; 45,25</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>41,42; 175,52</t>
+          <t>37,78; 180,85</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 51,28</t>
+          <t>-17,12; 54,7</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 49,5</t>
+          <t>-19,74; 51,67</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>88,14; 445,0</t>
+          <t>85,84; 419,57</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 38,48</t>
+          <t>-14,24; 42,4</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 29,92</t>
+          <t>-24,01; 30,84</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>91,52; 326,33</t>
+          <t>89,83; 349,9</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>6,94; 11,19</t>
+          <t>6,8; 11,1</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,64</t>
+          <t>1,83; 5,86</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,81; -4,95</t>
+          <t>-8,61; -4,61</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10,32; 15,07</t>
+          <t>10,17; 14,82</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,02</t>
+          <t>0,42; 5,13</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-13,15; -2,13</t>
+          <t>-13,28; -0,49</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,32; 12,4</t>
+          <t>9,41; 12,54</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,63</t>
+          <t>1,81; 4,9</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-10,17; -3,97</t>
+          <t>-10,15; -3,5</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>32,62; 58,61</t>
+          <t>32,74; 57,96</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>7,15; 29,29</t>
+          <t>8,48; 30,83</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-41,16; -25,88</t>
+          <t>-41,29; -24,32</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>32,7; 51,53</t>
+          <t>32,19; 50,37</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>1,65; 17,26</t>
+          <t>1,35; 17,55</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-42,42; -7,24</t>
+          <t>-42,93; -1,18</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>35,57; 50,48</t>
+          <t>36,0; 51,17</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>6,12; 18,66</t>
+          <t>6,75; 19,83</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-39,24; -14,72</t>
+          <t>-39,33; -12,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 6,16</t>
+          <t>-0,63; 6,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 8,21</t>
+          <t>0,6; 8,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 6,11</t>
+          <t>-3,59; 6,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 17,02</t>
+          <t>6,9; 17,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 18,03</t>
+          <t>7,5; 18,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 3,64</t>
+          <t>-6,94; 3,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 10,55</t>
+          <t>4,17; 10,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,41; 11,86</t>
+          <t>5,48; 12,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 3,31</t>
+          <t>-3,52; 3,09</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 122,11</t>
+          <t>-8,14; 126,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 158,28</t>
+          <t>4,79; 181,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,72; 115,23</t>
+          <t>-50,93; 120,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,48; 163,47</t>
+          <t>47,12; 169,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,93; 177,29</t>
+          <t>50,53; 180,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,33; 36,63</t>
+          <t>-51,62; 33,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,7; 131,59</t>
+          <t>40,89; 139,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,63; 151,84</t>
+          <t>47,38; 151,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,29; 40,6</t>
+          <t>-35,53; 39,45</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 12,48</t>
+          <t>2,54; 12,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 12,65</t>
+          <t>2,85; 12,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,56; -6,21</t>
+          <t>-16,53; -6,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,89; 20,98</t>
+          <t>9,18; 20,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 11,13</t>
+          <t>-0,08; 11,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,34; -21,11</t>
+          <t>-32,54; -20,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 15,25</t>
+          <t>7,37; 15,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,29; 11,09</t>
+          <t>3,87; 11,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-22,12; -14,18</t>
+          <t>-21,99; -13,86</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,22; 55,38</t>
+          <t>8,71; 53,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,7; 56,95</t>
+          <t>9,79; 56,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,32; -27,33</t>
+          <t>-63,97; -27,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,64; 45,37</t>
+          <t>17,97; 45,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 24,58</t>
+          <t>-0,21; 24,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,34; -44,27</t>
+          <t>-64,2; -44,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,22; 45,52</t>
+          <t>19,62; 45,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,92; 32,89</t>
+          <t>10,49; 34,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-59,69; -41,53</t>
+          <t>-59,18; -40,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,39; 21,68</t>
+          <t>10,41; 21,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 9,66</t>
+          <t>-1,49; 10,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,56; -17,08</t>
+          <t>-28,32; -17,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,27; 27,82</t>
+          <t>18,47; 28,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 11,4</t>
+          <t>0,68; 12,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,03; -28,27</t>
+          <t>-38,61; -28,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,47; 23,65</t>
+          <t>15,93; 23,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 8,93</t>
+          <t>1,49; 9,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-32,16; -24,44</t>
+          <t>-31,96; -24,12</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,27; 52,94</t>
+          <t>21,4; 52,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 23,04</t>
+          <t>-3,08; 23,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,02; -40,34</t>
+          <t>-60,35; -40,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,26; 50,86</t>
+          <t>30,28; 51,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 20,74</t>
+          <t>1,1; 21,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,68; -50,81</t>
+          <t>-64,48; -50,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,2; 48,07</t>
+          <t>29,92; 47,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 18,0</t>
+          <t>2,64; 18,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-60,68; -49,12</t>
+          <t>-60,47; -49,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,66; 22,14</t>
+          <t>10,91; 21,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 9,65</t>
+          <t>-0,29; 9,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,24; -2,79</t>
+          <t>-12,58; -2,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,67; 25,09</t>
+          <t>13,9; 25,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 11,8</t>
+          <t>0,74; 11,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,38; -4,6</t>
+          <t>-13,24; -4,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,79; 21,45</t>
+          <t>13,71; 21,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 9,18</t>
+          <t>1,72; 8,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,34; -4,85</t>
+          <t>-11,67; -4,79</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>42,36; 117,94</t>
+          <t>44,86; 116,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 51,91</t>
+          <t>-1,88; 49,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,2; -14,56</t>
+          <t>-52,5; -15,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>53,44; 124,02</t>
+          <t>52,2; 122,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,46; 57,28</t>
+          <t>2,46; 53,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,45; -22,24</t>
+          <t>-49,55; -22,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>57,19; 105,67</t>
+          <t>57,67; 107,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,06; 44,51</t>
+          <t>7,47; 43,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-46,06; -23,61</t>
+          <t>-47,1; -22,93</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,65; 11,04</t>
+          <t>3,06; 11,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 6,81</t>
+          <t>-0,84; 6,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 6,59</t>
+          <t>0,41; 6,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 10,91</t>
+          <t>-0,32; 10,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 0,12</t>
+          <t>-9,66; 0,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,22; -2,27</t>
+          <t>-10,66; -2,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,52; 9,39</t>
+          <t>2,73; 9,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,26</t>
+          <t>-4,06; 2,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 1,09</t>
+          <t>-4,1; 0,99</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>31,61; 286,37</t>
+          <t>32,74; 293,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 172,64</t>
+          <t>-15,11; 173,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 173,15</t>
+          <t>2,89; 172,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 74,38</t>
+          <t>-1,79; 74,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-48,83; 1,35</t>
+          <t>-49,19; 1,05</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-54,19; -15,92</t>
+          <t>-52,0; -18,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>18,92; 94,33</t>
+          <t>19,3; 96,49</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-28,52; 23,67</t>
+          <t>-32,33; 22,33</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 12,4</t>
+          <t>-32,23; 10,98</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 3,65</t>
+          <t>-2,53; 3,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 2,48</t>
+          <t>-3,89; 2,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,63; 9,88</t>
+          <t>3,92; 10,09</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 4,75</t>
+          <t>-1,99; 4,73</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 4,84</t>
+          <t>-2,38; 4,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,12; 41,78</t>
+          <t>10,48; 40,31</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,37</t>
+          <t>-1,41; 3,16</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,44</t>
+          <t>-2,18; 2,51</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,94; 31,06</t>
+          <t>8,88; 32,64</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-34,5; 62,79</t>
+          <t>-30,31; 68,39</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-40,82; 45,25</t>
+          <t>-44,17; 39,88</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>37,78; 180,85</t>
+          <t>43,34; 188,75</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 54,7</t>
+          <t>-15,81; 52,33</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 51,67</t>
+          <t>-18,9; 50,08</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>85,84; 419,57</t>
+          <t>91,6; 431,74</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 42,4</t>
+          <t>-13,89; 39,17</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 30,84</t>
+          <t>-22,31; 30,48</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>89,83; 349,9</t>
+          <t>91,76; 390,63</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,1</t>
+          <t>7,0; 11,14</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,86</t>
+          <t>1,54; 5,66</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,61; -4,61</t>
+          <t>-8,57; -4,68</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10,17; 14,82</t>
+          <t>10,38; 15,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,13</t>
+          <t>0,63; 5,31</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-13,28; -0,49</t>
+          <t>-13,07; -0,49</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,41; 12,54</t>
+          <t>9,31; 12,43</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,9</t>
+          <t>1,78; 4,79</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-10,15; -3,5</t>
+          <t>-10,09; -3,6</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>32,74; 57,96</t>
+          <t>32,97; 57,78</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>8,48; 30,83</t>
+          <t>7,12; 29,26</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-41,29; -24,32</t>
+          <t>-40,87; -24,94</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>32,19; 50,37</t>
+          <t>32,74; 51,59</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>1,35; 17,55</t>
+          <t>1,73; 18,05</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-42,93; -1,18</t>
+          <t>-42,37; -0,24</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>36,0; 51,17</t>
+          <t>35,77; 50,75</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>6,75; 19,83</t>
+          <t>6,84; 19,53</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-39,33; -12,87</t>
+          <t>-39,11; -13,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales)</t>
+          <t>Hogares con al menos un miembro que requiere cuidados habituales por la persona entrevistada</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 6,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 8,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 6,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,9; 17,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,5; 18,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 3,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,17; 10,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,48; 12,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 3,09</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>42,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>70,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>98,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>105,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>78,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>92,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-5,82%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 126,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 181,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,93; 120,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,12; 169,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,53; 180,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,62; 33,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,89; 139,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,38; 151,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 39,45</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-11,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-27,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-18,11</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 12,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 12,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,53; -6,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,18; 20,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 11,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,54; -20,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,37; 15,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 11,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-21,99; -13,86</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-47,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-55,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-50,9%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 53,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,79; 56,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,97; -27,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,97; 45,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 24,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,2; -44,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,62; 45,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,49; 34,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-59,18; -40,86</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-22,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-33,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>19,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-28,28</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,41; 21,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 10,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-28,32; -17,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,47; 28,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 12,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-38,61; -28,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,93; 23,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 9,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-31,96; -24,12</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-50,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-57,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-54,92%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,4; 52,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 23,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,35; -40,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,28; 51,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 21,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,48; -50,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,92; 47,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 18,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-60,47; -49,0</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-8,05</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,91; 21,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 9,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,58; -2,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,9; 25,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 11,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,24; -4,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,71; 21,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 8,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -4,79</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>76,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-35,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>83,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-36,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>80,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-35,9%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>44,86; 116,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 49,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,5; -15,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>52,2; 122,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,46; 53,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,55; -22,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>57,67; 107,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,47; 43,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,1; -22,93</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-6,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,06; 11,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 6,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,41; 6,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 10,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 0,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,66; -2,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,73; 9,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 0,99</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>126,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>61,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>62,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-27,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-37,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>53,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-6,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-14,57%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>32,74; 293,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 173,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2,89; 172,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 74,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-49,19; 1,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-52,0; -18,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>19,3; 96,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 22,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-32,23; 10,98</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>14,85</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 3,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 2,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,92; 10,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 4,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 4,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,48; 40,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 2,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,88; 32,64</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-9,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>99,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>187,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>161,9%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-30,31; 68,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-44,17; 39,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>43,34; 188,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 52,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-18,9; 50,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>91,6; 431,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 39,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 30,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>91,76; 390,63</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>9,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-6,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>12,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-9,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>10,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>7,0; 11,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -4,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10,38; 15,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-13,07; -0,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,31; 12,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-10,09; -3,6</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-33,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>41,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-32,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-32,36%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>32,97; 57,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>7,12; 29,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-40,87; -24,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>32,74; 51,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>1,73; 18,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-42,37; -0,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>35,77; 50,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>6,84; 19,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-39,11; -13,32</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,8</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,2</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,15</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,53; 19,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,05; 21,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,16; -11,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,27; 31,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,31; 34,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,94; -19,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,01; 24,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,4; 26,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,18; -17,17</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,01%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,21; 121,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,57; 134,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,91; -67,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,18; 109,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,85; 120,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,83; -65,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,3; 103,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,2; 115,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,56; -72,57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-50,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,34</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-60,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,07</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,96</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-56,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 17,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,79; 23,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,27; -44,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,58; 21,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,12; 15,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,33; -53,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,56; 17,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,11; 17,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,19; -51,67</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,6%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,7; 33,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,68; 44,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,03; -80,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,16; 28,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,38; 21,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,96; -72,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,75; 26,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,55; 26,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,28; -77,53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-43,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-49,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,91</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-46,64</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,56; 20,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,48; 17,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,66; -38,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,45; 29,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,44; 15,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,67; -44,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,07; 23,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,75; 14,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,92; -42,68</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,63%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,4; 36,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,57; 30,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,95; -66,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,54; 44,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,6; 23,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,79; -65,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,73; 37,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,06; 23,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,61; -67,72</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-33,69</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-41,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,59</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-37,18</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,65; 31,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 17,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,04; -27,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,14; 40,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 16,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,99; -35,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,42; 33,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,65; 15,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,02; -32,17</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,98%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,63%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,93%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,86%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,33%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,52; 90,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,83; 48,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,12; -72,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,96; 84,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 34,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,85; -72,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,61; 77,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,19; 35,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,3; -73,68</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,42</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,61</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,48</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,21</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,19</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,55</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,09</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,18; 36,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,58; 23,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,78; -7,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 20,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,98; 4,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,25; -20,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,45; 22,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,16; 7,8</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,69; -17,98</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,63%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,84%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,14%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,73%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,2%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,49%</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,64; 255,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 161,08</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,26; -52,06</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 66,96</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,47; 15,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,24; -69,36</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,78; 89,79</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,97; 29,71</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,59; -70,59</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,14</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,87</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,58; 9,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 6,11</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,76; 0,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,16; 5,12</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,13; 4,71</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,24; 64,43</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 5,1</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; 3,73</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,52; 55,81</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,07%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,79%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,72%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>172,33%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,9%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,9; 219,91</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,62; 143,25</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,96; 15,96</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,69; 44,39</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,07; 39,66</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,56; 637,49</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,48; 58,34</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,1; 40,16</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,17; 566,5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,17</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,69; 4,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,34; 1,63</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,23; 0,76</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 7,62</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 9,55</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,5; 1,85</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,65; 4,98</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 5,58</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,13; 0,46</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,19%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,81%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,93%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,39%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,96%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,4%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,47%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,19; 56,62</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,21; 26,44</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,9; 12,78</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,06; 123,37</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; 150,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,69; 33,22</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,64; 65,62</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,22; 75,71</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,73; 6,56</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>12,41</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>7,24</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-29,23</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>15,58</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>5,26</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-29,38</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>14,08</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>6,19</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-29,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>9,5; 15,6</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>4,16; 10,17</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-31,95; -26,82</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>12,7; 18,32</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 8,27</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-35,04; -15,4</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>11,99; 16,21</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 8,5</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-32,73; -20,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>33,59%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>19,59%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-79,08%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>33,87%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>11,43%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-63,86%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>33,59%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>14,78%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-70,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>25,1; 44,59</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>10,56; 28,91</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-83,43; -75,52</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>26,82; 41,64</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>5,18; 18,58</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-75,25; -33,39</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>27,87; 39,88</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>9,74; 20,92</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-77,58; -50,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P2C_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 19,43</t>
+          <t>1,34; 18,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 21,05</t>
+          <t>2,18; 22,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,16; -11,7</t>
+          <t>-23,47; -11,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,27; 31,26</t>
+          <t>11,45; 30,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,31; 34,05</t>
+          <t>15,03; 34,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,94; -19,33</t>
+          <t>-33,83; -18,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,01; 24,04</t>
+          <t>10,78; 24,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,4; 26,69</t>
+          <t>11,81; 26,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-27,18; -17,17</t>
+          <t>-26,97; -17,42</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 121,77</t>
+          <t>5,57; 118,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,57; 134,8</t>
+          <t>9,9; 135,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-93,91; -67,13</t>
+          <t>-94,87; -68,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,18; 109,99</t>
+          <t>29,88; 102,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,85; 120,28</t>
+          <t>40,32; 123,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,83; -65,66</t>
+          <t>-89,0; -64,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,3; 103,27</t>
+          <t>35,37; 101,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,2; 115,9</t>
+          <t>40,03; 115,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-89,56; -72,57</t>
+          <t>-89,58; -74,17</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 17,97</t>
+          <t>0,92; 17,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 23,76</t>
+          <t>8,38; 24,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-57,27; -44,35</t>
+          <t>-56,56; -43,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,58; 21,07</t>
+          <t>10,79; 20,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 15,85</t>
+          <t>5,18; 16,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-67,33; -53,58</t>
+          <t>-67,48; -54,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 17,27</t>
+          <t>8,47; 17,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,11; 17,6</t>
+          <t>8,3; 18,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-61,19; -51,67</t>
+          <t>-60,83; -51,49</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 33,1</t>
+          <t>1,59; 33,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,68; 44,15</t>
+          <t>13,28; 45,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-91,03; -80,18</t>
+          <t>-90,96; -79,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,16; 28,74</t>
+          <t>13,32; 28,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,38; 21,84</t>
+          <t>6,49; 21,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,96; -72,08</t>
+          <t>-86,73; -72,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 26,34</t>
+          <t>11,88; 26,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,55; 26,67</t>
+          <t>11,85; 27,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-86,28; -77,53</t>
+          <t>-86,42; -77,24</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,56; 20,43</t>
+          <t>8,35; 19,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,48; 17,46</t>
+          <t>4,86; 17,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-48,66; -38,18</t>
+          <t>-48,71; -37,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,45; 29,57</t>
+          <t>21,26; 30,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,44; 15,56</t>
+          <t>5,33; 15,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-55,67; -44,51</t>
+          <t>-56,35; -44,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,07; 23,4</t>
+          <t>16,24; 23,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,75; 14,8</t>
+          <t>6,84; 14,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-50,92; -42,68</t>
+          <t>-50,58; -42,76</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,4; 36,29</t>
+          <t>12,99; 34,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,57; 30,48</t>
+          <t>7,74; 30,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,95; -66,08</t>
+          <t>-77,19; -65,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>29,54; 44,79</t>
+          <t>29,24; 46,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,6; 23,6</t>
+          <t>7,33; 23,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-78,79; -65,76</t>
+          <t>-78,78; -66,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,73; 37,43</t>
+          <t>24,02; 37,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,06; 23,57</t>
+          <t>10,2; 23,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-76,61; -67,72</t>
+          <t>-76,21; -67,75</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,65; 31,84</t>
+          <t>15,21; 30,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,76; 17,81</t>
+          <t>1,79; 18,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-43,04; -27,53</t>
+          <t>-42,68; -27,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,14; 40,23</t>
+          <t>25,29; 39,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 16,36</t>
+          <t>-0,92; 16,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-48,99; -35,08</t>
+          <t>-48,01; -34,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,42; 33,11</t>
+          <t>21,76; 33,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 15,31</t>
+          <t>3,09; 15,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-43,02; -32,17</t>
+          <t>-43,18; -32,76</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>34,52; 90,36</t>
+          <t>32,77; 84,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,83; 48,99</t>
+          <t>3,99; 50,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-93,12; -72,59</t>
+          <t>-91,78; -72,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>41,96; 84,03</t>
+          <t>42,11; 82,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 34,13</t>
+          <t>-1,63; 32,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-81,85; -72,02</t>
+          <t>-82,11; -71,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>44,61; 77,09</t>
+          <t>43,03; 78,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,19; 35,5</t>
+          <t>5,85; 35,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-87,3; -73,68</t>
+          <t>-88,04; -73,88</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,18; 36,24</t>
+          <t>12,9; 37,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,58; 23,62</t>
+          <t>1,45; 24,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-23,78; -7,08</t>
+          <t>-22,59; -7,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,23; 20,22</t>
+          <t>0,16; 19,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 4,6</t>
+          <t>-14,61; 5,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-34,25; -20,14</t>
+          <t>-34,02; -20,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,45; 22,75</t>
+          <t>8,21; 23,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 7,8</t>
+          <t>-6,08; 8,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-28,69; -17,98</t>
+          <t>-28,78; -17,91</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>53,64; 255,7</t>
+          <t>45,1; 264,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,57; 161,08</t>
+          <t>0,68; 162,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-84,26; -52,06</t>
+          <t>-83,02; -52,27</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,31; 66,96</t>
+          <t>-0,19; 66,05</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-36,47; 15,7</t>
+          <t>-36,8; 18,71</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-83,24; -69,36</t>
+          <t>-83,18; -69,53</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>22,78; 89,79</t>
+          <t>23,04; 89,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 29,71</t>
+          <t>-18,16; 32,68</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-82,59; -70,59</t>
+          <t>-82,22; -70,36</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,58; 9,72</t>
+          <t>0,01; 9,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 6,11</t>
+          <t>-2,09; 6,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 0,55</t>
+          <t>-6,06; 0,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 5,12</t>
+          <t>-4,62; 5,17</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 4,71</t>
+          <t>-6,53; 4,02</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 64,43</t>
+          <t>-8,28; 61,95</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 5,1</t>
+          <t>-1,28; 5,25</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 3,73</t>
+          <t>-3,19; 4,04</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 55,81</t>
+          <t>-5,79; 47,73</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2,9; 219,91</t>
+          <t>-2,14; 209,37</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,62; 143,25</t>
+          <t>-28,47; 141,1</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-66,96; 15,96</t>
+          <t>-68,52; 9,77</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-31,69; 44,39</t>
+          <t>-29,1; 44,79</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-38,07; 39,66</t>
+          <t>-37,28; 34,52</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-56,56; 637,49</t>
+          <t>-56,83; 557,35</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 58,34</t>
+          <t>-11,65; 61,34</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 40,16</t>
+          <t>-26,38; 46,95</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-52,17; 566,5</t>
+          <t>-53,12; 512,27</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 4,05</t>
+          <t>-8,03; 3,55</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 1,63</t>
+          <t>-8,27; 1,99</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 0,76</t>
+          <t>-8,7; 1,26</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 7,62</t>
+          <t>-1,82; 7,77</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 9,55</t>
+          <t>-0,49; 9,58</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 1,85</t>
+          <t>-5,21; 2,31</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 4,98</t>
+          <t>-2,73; 4,76</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 5,58</t>
+          <t>-1,89; 5,35</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 0,46</t>
+          <t>-5,26; 0,63</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-59,19; 56,62</t>
+          <t>-58,89; 46,69</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-62,21; 26,44</t>
+          <t>-61,14; 29,67</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-60,9; 12,78</t>
+          <t>-60,69; 23,22</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 123,37</t>
+          <t>-15,7; 127,23</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 150,0</t>
+          <t>-7,3; 152,14</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-46,69; 33,22</t>
+          <t>-45,16; 39,8</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 65,62</t>
+          <t>-25,26; 60,78</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 75,71</t>
+          <t>-17,71; 69,93</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-45,73; 6,56</t>
+          <t>-44,61; 9,18</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>9,5; 15,6</t>
+          <t>9,57; 15,35</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>4,16; 10,17</t>
+          <t>4,02; 10,25</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-31,95; -26,82</t>
+          <t>-32,18; -26,61</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>12,7; 18,32</t>
+          <t>12,93; 18,71</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,49; 8,27</t>
+          <t>2,14; 8,1</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-35,04; -15,4</t>
+          <t>-35,15; -13,5</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>11,99; 16,21</t>
+          <t>11,69; 16,22</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,5</t>
+          <t>4,21; 8,7</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-32,73; -20,99</t>
+          <t>-32,69; -19,94</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>25,1; 44,59</t>
+          <t>24,91; 43,07</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>10,56; 28,91</t>
+          <t>10,66; 29,1</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-83,43; -75,52</t>
+          <t>-83,52; -75,76</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>26,82; 41,64</t>
+          <t>27,3; 42,07</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>5,18; 18,58</t>
+          <t>4,33; 17,99</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-75,25; -33,39</t>
+          <t>-75,41; -29,28</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>27,87; 39,88</t>
+          <t>27,07; 40,0</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>9,74; 20,92</t>
+          <t>9,75; 21,24</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-77,58; -50,38</t>
+          <t>-77,62; -48,08</t>
         </is>
       </c>
     </row>
